--- a/Code/Results/Cases/Case_1_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.962394713851471</v>
+        <v>1.035299986006433</v>
       </c>
       <c r="D2">
-        <v>1.031503671847397</v>
+        <v>1.030431791681564</v>
       </c>
       <c r="E2">
-        <v>0.9813610628959574</v>
+        <v>1.043346011103842</v>
       </c>
       <c r="F2">
-        <v>0.9876769286695124</v>
+        <v>1.051940005133803</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050146562823702</v>
+        <v>1.032742580201409</v>
       </c>
       <c r="J2">
-        <v>0.985761470729311</v>
+        <v>1.040414515650139</v>
       </c>
       <c r="K2">
-        <v>1.042540887288496</v>
+        <v>1.033242821553265</v>
       </c>
       <c r="L2">
-        <v>0.9930863236613505</v>
+        <v>1.046120136598059</v>
       </c>
       <c r="M2">
-        <v>0.9993106557234771</v>
+        <v>1.054690116457603</v>
       </c>
       <c r="N2">
-        <v>0.9979923618232376</v>
+        <v>1.017209706397926</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9718571785219136</v>
+        <v>1.037085572483742</v>
       </c>
       <c r="D3">
-        <v>1.034288804017433</v>
+        <v>1.030900693442999</v>
       </c>
       <c r="E3">
-        <v>0.9895652574929821</v>
+        <v>1.044933390792502</v>
       </c>
       <c r="F3">
-        <v>0.9965377934487188</v>
+        <v>1.053623950861821</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051580757509637</v>
+        <v>1.032875542783676</v>
       </c>
       <c r="J3">
-        <v>0.9931455976343284</v>
+        <v>1.041839375531064</v>
       </c>
       <c r="K3">
-        <v>1.044500974396923</v>
+        <v>1.033520989168909</v>
       </c>
       <c r="L3">
-        <v>1.000333417158384</v>
+        <v>1.047516503596506</v>
       </c>
       <c r="M3">
-        <v>1.007215166374454</v>
+        <v>1.056184571918853</v>
       </c>
       <c r="N3">
-        <v>1.000598968527789</v>
+        <v>1.017699242577486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9777481134593543</v>
+        <v>1.038237622969961</v>
       </c>
       <c r="D4">
-        <v>1.036029342843871</v>
+        <v>1.03120157438988</v>
       </c>
       <c r="E4">
-        <v>0.9946787078356678</v>
+        <v>1.045957297606657</v>
       </c>
       <c r="F4">
-        <v>1.002054938282131</v>
+        <v>1.054709086658705</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052455190444757</v>
+        <v>1.032958114843868</v>
       </c>
       <c r="J4">
-        <v>0.9977386759553662</v>
+        <v>1.042757787388789</v>
       </c>
       <c r="K4">
-        <v>1.045711534806756</v>
+        <v>1.033697734688799</v>
       </c>
       <c r="L4">
-        <v>1.004841783300388</v>
+        <v>1.048416339404178</v>
       </c>
       <c r="M4">
-        <v>1.012128625120282</v>
+        <v>1.05714664086608</v>
       </c>
       <c r="N4">
-        <v>1.002218287127863</v>
+        <v>1.018014344995279</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9801731141534334</v>
+        <v>1.038721160813734</v>
       </c>
       <c r="D5">
-        <v>1.036746849105102</v>
+        <v>1.031327458059373</v>
       </c>
       <c r="E5">
-        <v>0.996784863911104</v>
+        <v>1.046386986916477</v>
       </c>
       <c r="F5">
-        <v>1.004325949552725</v>
+        <v>1.055164216449505</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052810407680054</v>
+        <v>1.032991998688921</v>
       </c>
       <c r="J5">
-        <v>0.9996283438737898</v>
+        <v>1.043143046334291</v>
       </c>
       <c r="K5">
-        <v>1.046207109545251</v>
+        <v>1.03377126039345</v>
       </c>
       <c r="L5">
-        <v>1.006696669599782</v>
+        <v>1.04879375497511</v>
       </c>
       <c r="M5">
-        <v>1.014149145827833</v>
+        <v>1.057549923421826</v>
       </c>
       <c r="N5">
-        <v>1.002883977297236</v>
+        <v>1.018146420970302</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9805773668556412</v>
+        <v>1.038802303428561</v>
       </c>
       <c r="D6">
-        <v>1.036866502586365</v>
+        <v>1.031348558873825</v>
       </c>
       <c r="E6">
-        <v>0.997136030082584</v>
+        <v>1.04645908938786</v>
       </c>
       <c r="F6">
-        <v>1.004704516767136</v>
+        <v>1.055240572898708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052869335194463</v>
+        <v>1.032997639287794</v>
       </c>
       <c r="J6">
-        <v>0.9999432892521081</v>
+        <v>1.043207684033205</v>
       </c>
       <c r="K6">
-        <v>1.046289549235213</v>
+        <v>1.033783560033608</v>
       </c>
       <c r="L6">
-        <v>1.007005820638581</v>
+        <v>1.048857073723594</v>
       </c>
       <c r="M6">
-        <v>1.014485839231049</v>
+        <v>1.057617568009553</v>
       </c>
       <c r="N6">
-        <v>1.00299489414128</v>
+        <v>1.018168574183351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9777807140684119</v>
+        <v>1.038244087085434</v>
       </c>
       <c r="D7">
-        <v>1.036038985383907</v>
+        <v>1.031203258838563</v>
       </c>
       <c r="E7">
-        <v>0.9947070175091807</v>
+        <v>1.045963042108931</v>
       </c>
       <c r="F7">
-        <v>1.002085469571745</v>
+        <v>1.054715172276793</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052459985034359</v>
+        <v>1.03295857086078</v>
       </c>
       <c r="J7">
-        <v>0.9977640841866622</v>
+        <v>1.042762938526371</v>
       </c>
       <c r="K7">
-        <v>1.045718208536745</v>
+        <v>1.033698720200941</v>
       </c>
       <c r="L7">
-        <v>1.004866723653665</v>
+        <v>1.048421385872697</v>
       </c>
       <c r="M7">
-        <v>1.012155796783134</v>
+        <v>1.057152034132527</v>
       </c>
       <c r="N7">
-        <v>1.002227240033285</v>
+        <v>1.018016111339447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.965643156671727</v>
+        <v>1.035904135403513</v>
       </c>
       <c r="D8">
-        <v>1.032458021485132</v>
+        <v>1.030590782454567</v>
       </c>
       <c r="E8">
-        <v>0.9841761695681244</v>
+        <v>1.043883151059292</v>
       </c>
       <c r="F8">
-        <v>0.9907184933297121</v>
+        <v>1.052510040305762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05064262772307</v>
+        <v>1.032788232562463</v>
       </c>
       <c r="J8">
-        <v>0.9882971908359721</v>
+        <v>1.040896800155646</v>
       </c>
       <c r="K8">
-        <v>1.043215569613799</v>
+        <v>1.033337501658291</v>
       </c>
       <c r="L8">
-        <v>0.9955748384793136</v>
+        <v>1.046592820231973</v>
       </c>
       <c r="M8">
-        <v>1.002025673845161</v>
+        <v>1.055196205751611</v>
       </c>
       <c r="N8">
-        <v>0.998887886925698</v>
+        <v>1.017375493855205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9422724538119841</v>
+        <v>1.03175450176062</v>
       </c>
       <c r="D9">
-        <v>1.025648613570079</v>
+        <v>1.029492186141551</v>
       </c>
       <c r="E9">
-        <v>0.9639587059219528</v>
+        <v>1.040192755209057</v>
       </c>
       <c r="F9">
-        <v>0.9688538638654407</v>
+        <v>1.048589315768057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04700749014345</v>
+        <v>1.03246155499191</v>
       </c>
       <c r="J9">
-        <v>0.9700424070704557</v>
+        <v>1.037580524830747</v>
       </c>
       <c r="K9">
-        <v>1.03833882802688</v>
+        <v>1.032676140422534</v>
       </c>
       <c r="L9">
-        <v>0.9776649090711417</v>
+        <v>1.043341716069383</v>
       </c>
       <c r="M9">
-        <v>0.9824733215359023</v>
+        <v>1.051711365178595</v>
       </c>
       <c r="N9">
-        <v>0.9924335423240906</v>
+        <v>1.01623373022904</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9250141686777765</v>
+        <v>1.028969336290308</v>
       </c>
       <c r="D10">
-        <v>1.020729203190016</v>
+        <v>1.028746836428481</v>
       </c>
       <c r="E10">
-        <v>0.9490885453869609</v>
+        <v>1.037714601143161</v>
       </c>
       <c r="F10">
-        <v>0.952750251604483</v>
+        <v>1.045951097052791</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044256593637632</v>
+        <v>1.03222594312556</v>
       </c>
       <c r="J10">
-        <v>0.9565547176980099</v>
+        <v>1.03535010217368</v>
       </c>
       <c r="K10">
-        <v>1.034734007252123</v>
+        <v>1.032218551451625</v>
       </c>
       <c r="L10">
-        <v>0.9644421687417329</v>
+        <v>1.04115408481449</v>
       </c>
       <c r="M10">
-        <v>0.9680284438433003</v>
+        <v>1.049361514270864</v>
       </c>
       <c r="N10">
-        <v>0.9876572090714169</v>
+        <v>1.015463591581948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9170448129779126</v>
+        <v>1.027758651087324</v>
       </c>
       <c r="D11">
-        <v>1.018496926973617</v>
+        <v>1.028421027322378</v>
       </c>
       <c r="E11">
-        <v>0.9422413774198444</v>
+        <v>1.036637100945013</v>
       </c>
       <c r="F11">
-        <v>0.94533177102949</v>
+        <v>1.044802734588821</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042977613117109</v>
+        <v>1.032119691045545</v>
       </c>
       <c r="J11">
-        <v>0.9503278294847376</v>
+        <v>1.034379479095911</v>
       </c>
       <c r="K11">
-        <v>1.033078249973843</v>
+        <v>1.032016456680416</v>
       </c>
       <c r="L11">
-        <v>0.9583414224568391</v>
+        <v>1.040201844266875</v>
       </c>
       <c r="M11">
-        <v>0.9613639340564064</v>
+        <v>1.048337508793635</v>
       </c>
       <c r="N11">
-        <v>0.9854511207311863</v>
+        <v>1.015127923923465</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9139995609223257</v>
+        <v>1.027308223880283</v>
       </c>
       <c r="D12">
-        <v>1.017651179863071</v>
+        <v>1.028299546813682</v>
       </c>
       <c r="E12">
-        <v>0.9396283992574903</v>
+        <v>1.036236185412986</v>
       </c>
       <c r="F12">
-        <v>0.9425004595580727</v>
+        <v>1.044375263549758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04248829247519</v>
+        <v>1.032079588386593</v>
       </c>
       <c r="J12">
-        <v>0.9479489276139746</v>
+        <v>1.034018204061131</v>
       </c>
       <c r="K12">
-        <v>1.032447848170589</v>
+        <v>1.031940795391453</v>
       </c>
       <c r="L12">
-        <v>0.956011430903169</v>
+        <v>1.039847376081621</v>
       </c>
       <c r="M12">
-        <v>0.9588188887885486</v>
+        <v>1.04795615462417</v>
       </c>
       <c r="N12">
-        <v>0.9846082455099935</v>
+        <v>1.015002907081969</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9146568202659839</v>
+        <v>1.027404875171458</v>
       </c>
       <c r="D13">
-        <v>1.017833367932938</v>
+        <v>1.02832562562831</v>
       </c>
       <c r="E13">
-        <v>0.9401921946970873</v>
+        <v>1.036322214373855</v>
       </c>
       <c r="F13">
-        <v>0.9431113748500043</v>
+        <v>1.044466999363247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042593917347682</v>
+        <v>1.032088219324764</v>
       </c>
       <c r="J13">
-        <v>0.9484623389165395</v>
+        <v>1.034095732636423</v>
       </c>
       <c r="K13">
-        <v>1.032583787797495</v>
+        <v>1.031957051888458</v>
       </c>
       <c r="L13">
-        <v>0.9565142514280501</v>
+        <v>1.039923445513542</v>
       </c>
       <c r="M13">
-        <v>0.9593681027361449</v>
+        <v>1.048038001575628</v>
       </c>
       <c r="N13">
-        <v>0.9847901552887111</v>
+        <v>1.01502973886455</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9167948955634997</v>
+        <v>1.027721433537619</v>
       </c>
       <c r="D14">
-        <v>1.018427363383489</v>
+        <v>1.028410995097715</v>
       </c>
       <c r="E14">
-        <v>0.9420268623367148</v>
+        <v>1.036603975191155</v>
       </c>
       <c r="F14">
-        <v>0.9450993367504534</v>
+        <v>1.044767418528643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042937463219381</v>
+        <v>1.032116389121548</v>
       </c>
       <c r="J14">
-        <v>0.9501325855081768</v>
+        <v>1.034349631226814</v>
       </c>
       <c r="K14">
-        <v>1.033026461754199</v>
+        <v>1.032010214618294</v>
       </c>
       <c r="L14">
-        <v>0.9581501772391378</v>
+        <v>1.040172559482984</v>
       </c>
       <c r="M14">
-        <v>0.9611550305269746</v>
+        <v>1.048306006286542</v>
       </c>
       <c r="N14">
-        <v>0.9853819441644747</v>
+        <v>1.015117596857012</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9181006097077951</v>
+        <v>1.027916378941239</v>
       </c>
       <c r="D15">
-        <v>1.018791106011193</v>
+        <v>1.028463533035007</v>
       </c>
       <c r="E15">
-        <v>0.9431477577485019</v>
+        <v>1.036777486199293</v>
       </c>
       <c r="F15">
-        <v>0.9463138530559985</v>
+        <v>1.044952394516385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043147210004927</v>
+        <v>1.03213366118906</v>
       </c>
       <c r="J15">
-        <v>0.9511526767855818</v>
+        <v>1.034505967670824</v>
       </c>
       <c r="K15">
-        <v>1.033297132637024</v>
+        <v>1.032042891180095</v>
       </c>
       <c r="L15">
-        <v>0.9591494062487754</v>
+        <v>1.040325945172283</v>
       </c>
       <c r="M15">
-        <v>0.9622465336911226</v>
+        <v>1.048471000785417</v>
       </c>
       <c r="N15">
-        <v>0.9857433687667992</v>
+        <v>1.015171684518071</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9255317612098702</v>
+        <v>1.029049584947948</v>
       </c>
       <c r="D16">
-        <v>1.020875099267475</v>
+        <v>1.028768394707432</v>
       </c>
       <c r="E16">
-        <v>0.9495336959304971</v>
+        <v>1.03778601627211</v>
       </c>
       <c r="F16">
-        <v>0.9532324909179304</v>
+        <v>1.0460271822889</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04433953913598</v>
+        <v>1.032232905567818</v>
       </c>
       <c r="J16">
-        <v>0.9569591931209011</v>
+        <v>1.035414415999239</v>
       </c>
       <c r="K16">
-        <v>1.034841803996266</v>
+        <v>1.032231880476163</v>
       </c>
       <c r="L16">
-        <v>0.9648385404172937</v>
+        <v>1.041217175631637</v>
       </c>
       <c r="M16">
-        <v>0.9684614653499819</v>
+        <v>1.049429335763923</v>
       </c>
       <c r="N16">
-        <v>0.9878004944850006</v>
+        <v>1.01548582207505</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9300534494979282</v>
+        <v>1.029759145290885</v>
       </c>
       <c r="D17">
-        <v>1.02215417804435</v>
+        <v>1.028958805360122</v>
       </c>
       <c r="E17">
-        <v>0.9534247526235917</v>
+        <v>1.038417439449044</v>
       </c>
       <c r="F17">
-        <v>0.9574473848988894</v>
+        <v>1.046699750808507</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045063254377349</v>
+        <v>1.032294026099777</v>
       </c>
       <c r="J17">
-        <v>0.9604928693818929</v>
+        <v>1.035982955886292</v>
       </c>
       <c r="K17">
-        <v>1.035784603260101</v>
+        <v>1.03234936944118</v>
       </c>
       <c r="L17">
-        <v>0.9683018599207442</v>
+        <v>1.041774876535409</v>
       </c>
       <c r="M17">
-        <v>0.9722450517592207</v>
+        <v>1.050028721520119</v>
       </c>
       <c r="N17">
-        <v>0.9890521971109252</v>
+        <v>1.015682281385862</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9326437874065914</v>
+        <v>1.030172568676995</v>
       </c>
       <c r="D18">
-        <v>1.022890481469632</v>
+        <v>1.029069572657465</v>
       </c>
       <c r="E18">
-        <v>0.955655583965118</v>
+        <v>1.0387853103313</v>
       </c>
       <c r="F18">
-        <v>0.9598635541962577</v>
+        <v>1.047091471263125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045476991842703</v>
+        <v>1.032329268507136</v>
       </c>
       <c r="J18">
-        <v>0.9625173046783525</v>
+        <v>1.03631411013192</v>
       </c>
       <c r="K18">
-        <v>1.036325456530816</v>
+        <v>1.032417517101583</v>
       </c>
       <c r="L18">
-        <v>0.9702863323371637</v>
+        <v>1.042099694405879</v>
       </c>
       <c r="M18">
-        <v>0.9744130292623077</v>
+        <v>1.050377706573569</v>
       </c>
       <c r="N18">
-        <v>0.9897691972406291</v>
+        <v>1.015796661606911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9335193245353244</v>
+        <v>1.030313459449814</v>
       </c>
       <c r="D19">
-        <v>1.023139920420301</v>
+        <v>1.029107291220223</v>
       </c>
       <c r="E19">
-        <v>0.9564098921726303</v>
+        <v>1.038910672765513</v>
       </c>
       <c r="F19">
-        <v>0.960680470205776</v>
+        <v>1.047224940396985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045616671037713</v>
+        <v>1.032341216033393</v>
       </c>
       <c r="J19">
-        <v>0.9632015745391428</v>
+        <v>1.036426946702209</v>
       </c>
       <c r="K19">
-        <v>1.036508367091759</v>
+        <v>1.032440688953612</v>
       </c>
       <c r="L19">
-        <v>0.9709571491003139</v>
+        <v>1.042210368007932</v>
       </c>
       <c r="M19">
-        <v>0.9751458691224343</v>
+        <v>1.050496595661091</v>
       </c>
       <c r="N19">
-        <v>0.9900115283843218</v>
+        <v>1.015835626653956</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9295732546855137</v>
+        <v>1.029683062991994</v>
       </c>
       <c r="D20">
-        <v>1.022017962956972</v>
+        <v>1.028938406714372</v>
       </c>
       <c r="E20">
-        <v>0.9530113425661023</v>
+        <v>1.038349738062469</v>
       </c>
       <c r="F20">
-        <v>0.9569996009854743</v>
+        <v>1.046627650416998</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044986481781361</v>
+        <v>1.032287510665678</v>
       </c>
       <c r="J20">
-        <v>0.9601175871783336</v>
+        <v>1.035922005195823</v>
       </c>
       <c r="K20">
-        <v>1.035684395072467</v>
+        <v>1.032336803464371</v>
       </c>
       <c r="L20">
-        <v>0.9679340129191193</v>
+        <v>1.041715090226457</v>
       </c>
       <c r="M20">
-        <v>0.9718431876372492</v>
+        <v>1.049964478017836</v>
       </c>
       <c r="N20">
-        <v>0.9889192738758377</v>
+        <v>1.015661225043316</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9161677294978854</v>
+        <v>1.027628235160652</v>
       </c>
       <c r="D21">
-        <v>1.018252915205369</v>
+        <v>1.02838586862605</v>
       </c>
       <c r="E21">
-        <v>0.9414885957575676</v>
+        <v>1.036521022667742</v>
       </c>
       <c r="F21">
-        <v>0.9445161025795505</v>
+        <v>1.044678978055448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042836700352007</v>
+        <v>1.032108111375411</v>
       </c>
       <c r="J21">
-        <v>0.9496426315679704</v>
+        <v>1.034274885043486</v>
       </c>
       <c r="K21">
-        <v>1.032896539941073</v>
+        <v>1.031994575925108</v>
       </c>
       <c r="L21">
-        <v>0.9576702700408328</v>
+        <v>1.040099222831505</v>
       </c>
       <c r="M21">
-        <v>0.9606308169239729</v>
+        <v>1.048227113116484</v>
       </c>
       <c r="N21">
-        <v>0.9852083486141235</v>
+        <v>1.01509173415843</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9072399821239827</v>
+        <v>1.026332079586497</v>
       </c>
       <c r="D22">
-        <v>1.015788974138758</v>
+        <v>1.028035801822122</v>
       </c>
       <c r="E22">
-        <v>0.9338354625255275</v>
+        <v>1.035367271080526</v>
       </c>
       <c r="F22">
-        <v>0.9362231467654762</v>
+        <v>1.043448449898513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041401924167632</v>
+        <v>1.03199163656742</v>
       </c>
       <c r="J22">
-        <v>0.9426698262559459</v>
+        <v>1.033234971825414</v>
       </c>
       <c r="K22">
-        <v>1.031054005836723</v>
+        <v>1.03177596543996</v>
       </c>
       <c r="L22">
-        <v>0.9508423868960524</v>
+        <v>1.039078836949166</v>
       </c>
       <c r="M22">
-        <v>0.9531735367414573</v>
+        <v>1.047129010026396</v>
       </c>
       <c r="N22">
-        <v>0.9827377694940972</v>
+        <v>1.014731732053806</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9120241753528051</v>
+        <v>1.027019601454832</v>
       </c>
       <c r="D23">
-        <v>1.017104793268046</v>
+        <v>1.028221631281289</v>
       </c>
       <c r="E23">
-        <v>0.9379344740824684</v>
+        <v>1.035979278078013</v>
       </c>
       <c r="F23">
-        <v>0.9406649335487182</v>
+        <v>1.044101286293346</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042170811399199</v>
+        <v>1.032053730946782</v>
       </c>
       <c r="J23">
-        <v>0.9464059798466363</v>
+        <v>1.033786662795887</v>
       </c>
       <c r="K23">
-        <v>1.032039702815743</v>
+        <v>1.03189218093694</v>
       </c>
       <c r="L23">
-        <v>0.954500429631034</v>
+        <v>1.039620187467992</v>
       </c>
       <c r="M23">
-        <v>0.9571685317326629</v>
+        <v>1.047711685863369</v>
       </c>
       <c r="N23">
-        <v>0.9840615516726775</v>
+        <v>1.014922761790638</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9297903787893325</v>
+        <v>1.029717442701623</v>
       </c>
       <c r="D24">
-        <v>1.022079542767186</v>
+        <v>1.028947624899415</v>
       </c>
       <c r="E24">
-        <v>0.9531982639333545</v>
+        <v>1.038380330725869</v>
       </c>
       <c r="F24">
-        <v>0.9572020653526297</v>
+        <v>1.046660231264331</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045021197873096</v>
+        <v>1.032290455971302</v>
       </c>
       <c r="J24">
-        <v>0.9602872738810994</v>
+        <v>1.035949547627232</v>
       </c>
       <c r="K24">
-        <v>1.035729702771199</v>
+        <v>1.03234248266802</v>
       </c>
       <c r="L24">
-        <v>0.9681003366770431</v>
+        <v>1.04174210656784</v>
       </c>
       <c r="M24">
-        <v>0.9720248924357848</v>
+        <v>1.049993508826968</v>
       </c>
       <c r="N24">
-        <v>0.988979376437098</v>
+        <v>1.015670740150592</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.948581340726029</v>
+        <v>1.032830508487089</v>
       </c>
       <c r="D25">
-        <v>1.027472350998198</v>
+        <v>1.029778485672828</v>
       </c>
       <c r="E25">
-        <v>0.9694078507345639</v>
+        <v>1.041149902068874</v>
       </c>
       <c r="F25">
-        <v>0.9747511758943913</v>
+        <v>1.049607153469448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048001972314738</v>
+        <v>1.03254915108397</v>
       </c>
       <c r="J25">
-        <v>0.974972329061768</v>
+        <v>1.038441250930218</v>
       </c>
       <c r="K25">
-        <v>1.039658654128936</v>
+        <v>1.032850059893946</v>
       </c>
       <c r="L25">
-        <v>0.9825003913510418</v>
+        <v>1.044185712507498</v>
       </c>
       <c r="M25">
-        <v>0.987754515226241</v>
+        <v>1.052616913775952</v>
       </c>
       <c r="N25">
-        <v>0.9941780940173532</v>
+        <v>1.0165304624545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_170/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_170/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035299986006433</v>
+        <v>0.962394713851471</v>
       </c>
       <c r="D2">
-        <v>1.030431791681564</v>
+        <v>1.031503671847398</v>
       </c>
       <c r="E2">
-        <v>1.043346011103842</v>
+        <v>0.9813610628959571</v>
       </c>
       <c r="F2">
-        <v>1.051940005133803</v>
+        <v>0.9876769286695125</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032742580201409</v>
+        <v>1.050146562823702</v>
       </c>
       <c r="J2">
-        <v>1.040414515650139</v>
+        <v>0.985761470729311</v>
       </c>
       <c r="K2">
-        <v>1.033242821553265</v>
+        <v>1.042540887288496</v>
       </c>
       <c r="L2">
-        <v>1.046120136598059</v>
+        <v>0.9930863236613505</v>
       </c>
       <c r="M2">
-        <v>1.054690116457603</v>
+        <v>0.9993106557234772</v>
       </c>
       <c r="N2">
-        <v>1.017209706397926</v>
+        <v>0.9979923618232376</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037085572483742</v>
+        <v>0.9718571785219137</v>
       </c>
       <c r="D3">
-        <v>1.030900693442999</v>
+        <v>1.034288804017433</v>
       </c>
       <c r="E3">
-        <v>1.044933390792502</v>
+        <v>0.9895652574929822</v>
       </c>
       <c r="F3">
-        <v>1.053623950861821</v>
+        <v>0.9965377934487188</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032875542783676</v>
+        <v>1.051580757509637</v>
       </c>
       <c r="J3">
-        <v>1.041839375531064</v>
+        <v>0.9931455976343289</v>
       </c>
       <c r="K3">
-        <v>1.033520989168909</v>
+        <v>1.044500974396923</v>
       </c>
       <c r="L3">
-        <v>1.047516503596506</v>
+        <v>1.000333417158384</v>
       </c>
       <c r="M3">
-        <v>1.056184571918853</v>
+        <v>1.007215166374454</v>
       </c>
       <c r="N3">
-        <v>1.017699242577486</v>
+        <v>1.000598968527789</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038237622969961</v>
+        <v>0.9777481134593544</v>
       </c>
       <c r="D4">
-        <v>1.03120157438988</v>
+        <v>1.036029342843871</v>
       </c>
       <c r="E4">
-        <v>1.045957297606657</v>
+        <v>0.9946787078356678</v>
       </c>
       <c r="F4">
-        <v>1.054709086658705</v>
+        <v>1.002054938282131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032958114843868</v>
+        <v>1.052455190444757</v>
       </c>
       <c r="J4">
-        <v>1.042757787388789</v>
+        <v>0.9977386759553664</v>
       </c>
       <c r="K4">
-        <v>1.033697734688799</v>
+        <v>1.045711534806756</v>
       </c>
       <c r="L4">
-        <v>1.048416339404178</v>
+        <v>1.004841783300388</v>
       </c>
       <c r="M4">
-        <v>1.05714664086608</v>
+        <v>1.012128625120282</v>
       </c>
       <c r="N4">
-        <v>1.018014344995279</v>
+        <v>1.002218287127863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038721160813734</v>
+        <v>0.980173114153433</v>
       </c>
       <c r="D5">
-        <v>1.031327458059373</v>
+        <v>1.036746849105102</v>
       </c>
       <c r="E5">
-        <v>1.046386986916477</v>
+        <v>0.9967848639111037</v>
       </c>
       <c r="F5">
-        <v>1.055164216449505</v>
+        <v>1.004325949552725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032991998688921</v>
+        <v>1.052810407680054</v>
       </c>
       <c r="J5">
-        <v>1.043143046334291</v>
+        <v>0.9996283438737896</v>
       </c>
       <c r="K5">
-        <v>1.03377126039345</v>
+        <v>1.046207109545251</v>
       </c>
       <c r="L5">
-        <v>1.04879375497511</v>
+        <v>1.006696669599782</v>
       </c>
       <c r="M5">
-        <v>1.057549923421826</v>
+        <v>1.014149145827832</v>
       </c>
       <c r="N5">
-        <v>1.018146420970302</v>
+        <v>1.002883977297236</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038802303428561</v>
+        <v>0.9805773668556409</v>
       </c>
       <c r="D6">
-        <v>1.031348558873825</v>
+        <v>1.036866502586365</v>
       </c>
       <c r="E6">
-        <v>1.04645908938786</v>
+        <v>0.9971360300825833</v>
       </c>
       <c r="F6">
-        <v>1.055240572898708</v>
+        <v>1.004704516767136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032997639287794</v>
+        <v>1.052869335194463</v>
       </c>
       <c r="J6">
-        <v>1.043207684033205</v>
+        <v>0.9999432892521077</v>
       </c>
       <c r="K6">
-        <v>1.033783560033608</v>
+        <v>1.046289549235213</v>
       </c>
       <c r="L6">
-        <v>1.048857073723594</v>
+        <v>1.007005820638581</v>
       </c>
       <c r="M6">
-        <v>1.057617568009553</v>
+        <v>1.014485839231049</v>
       </c>
       <c r="N6">
-        <v>1.018168574183351</v>
+        <v>1.00299489414128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038244087085434</v>
+        <v>0.9777807140684123</v>
       </c>
       <c r="D7">
-        <v>1.031203258838563</v>
+        <v>1.036038985383906</v>
       </c>
       <c r="E7">
-        <v>1.045963042108931</v>
+        <v>0.9947070175091808</v>
       </c>
       <c r="F7">
-        <v>1.054715172276793</v>
+        <v>1.002085469571745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03295857086078</v>
+        <v>1.052459985034359</v>
       </c>
       <c r="J7">
-        <v>1.042762938526371</v>
+        <v>0.9977640841866624</v>
       </c>
       <c r="K7">
-        <v>1.033698720200941</v>
+        <v>1.045718208536745</v>
       </c>
       <c r="L7">
-        <v>1.048421385872697</v>
+        <v>1.004866723653665</v>
       </c>
       <c r="M7">
-        <v>1.057152034132527</v>
+        <v>1.012155796783134</v>
       </c>
       <c r="N7">
-        <v>1.018016111339447</v>
+        <v>1.002227240033285</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035904135403513</v>
+        <v>0.9656431566717272</v>
       </c>
       <c r="D8">
-        <v>1.030590782454567</v>
+        <v>1.032458021485132</v>
       </c>
       <c r="E8">
-        <v>1.043883151059292</v>
+        <v>0.9841761695681241</v>
       </c>
       <c r="F8">
-        <v>1.052510040305762</v>
+        <v>0.9907184933297121</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032788232562463</v>
+        <v>1.050642627723071</v>
       </c>
       <c r="J8">
-        <v>1.040896800155646</v>
+        <v>0.9882971908359722</v>
       </c>
       <c r="K8">
-        <v>1.033337501658291</v>
+        <v>1.043215569613799</v>
       </c>
       <c r="L8">
-        <v>1.046592820231973</v>
+        <v>0.9955748384793136</v>
       </c>
       <c r="M8">
-        <v>1.055196205751611</v>
+        <v>1.002025673845161</v>
       </c>
       <c r="N8">
-        <v>1.017375493855205</v>
+        <v>0.9988878869256979</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03175450176062</v>
+        <v>0.9422724538119842</v>
       </c>
       <c r="D9">
-        <v>1.029492186141551</v>
+        <v>1.025648613570078</v>
       </c>
       <c r="E9">
-        <v>1.040192755209057</v>
+        <v>0.9639587059219528</v>
       </c>
       <c r="F9">
-        <v>1.048589315768057</v>
+        <v>0.9688538638654411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03246155499191</v>
+        <v>1.04700749014345</v>
       </c>
       <c r="J9">
-        <v>1.037580524830747</v>
+        <v>0.9700424070704557</v>
       </c>
       <c r="K9">
-        <v>1.032676140422534</v>
+        <v>1.03833882802688</v>
       </c>
       <c r="L9">
-        <v>1.043341716069383</v>
+        <v>0.9776649090711418</v>
       </c>
       <c r="M9">
-        <v>1.051711365178595</v>
+        <v>0.9824733215359024</v>
       </c>
       <c r="N9">
-        <v>1.01623373022904</v>
+        <v>0.9924335423240905</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028969336290308</v>
+        <v>0.9250141686777759</v>
       </c>
       <c r="D10">
-        <v>1.028746836428481</v>
+        <v>1.020729203190016</v>
       </c>
       <c r="E10">
-        <v>1.037714601143161</v>
+        <v>0.9490885453869603</v>
       </c>
       <c r="F10">
-        <v>1.045951097052791</v>
+        <v>0.9527502516044827</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03222594312556</v>
+        <v>1.044256593637632</v>
       </c>
       <c r="J10">
-        <v>1.03535010217368</v>
+        <v>0.9565547176980095</v>
       </c>
       <c r="K10">
-        <v>1.032218551451625</v>
+        <v>1.034734007252123</v>
       </c>
       <c r="L10">
-        <v>1.04115408481449</v>
+        <v>0.9644421687417323</v>
       </c>
       <c r="M10">
-        <v>1.049361514270864</v>
+        <v>0.9680284438432998</v>
       </c>
       <c r="N10">
-        <v>1.015463591581948</v>
+        <v>0.9876572090714165</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027758651087324</v>
+        <v>0.9170448129779127</v>
       </c>
       <c r="D11">
-        <v>1.028421027322378</v>
+        <v>1.018496926973617</v>
       </c>
       <c r="E11">
-        <v>1.036637100945013</v>
+        <v>0.9422413774198446</v>
       </c>
       <c r="F11">
-        <v>1.044802734588821</v>
+        <v>0.9453317710294903</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032119691045545</v>
+        <v>1.042977613117109</v>
       </c>
       <c r="J11">
-        <v>1.034379479095911</v>
+        <v>0.9503278294847378</v>
       </c>
       <c r="K11">
-        <v>1.032016456680416</v>
+        <v>1.033078249973842</v>
       </c>
       <c r="L11">
-        <v>1.040201844266875</v>
+        <v>0.9583414224568392</v>
       </c>
       <c r="M11">
-        <v>1.048337508793635</v>
+        <v>0.9613639340564066</v>
       </c>
       <c r="N11">
-        <v>1.015127923923465</v>
+        <v>0.9854511207311863</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027308223880283</v>
+        <v>0.9139995609223251</v>
       </c>
       <c r="D12">
-        <v>1.028299546813682</v>
+        <v>1.017651179863071</v>
       </c>
       <c r="E12">
-        <v>1.036236185412986</v>
+        <v>0.9396283992574898</v>
       </c>
       <c r="F12">
-        <v>1.044375263549758</v>
+        <v>0.942500459558072</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032079588386593</v>
+        <v>1.04248829247519</v>
       </c>
       <c r="J12">
-        <v>1.034018204061131</v>
+        <v>0.9479489276139743</v>
       </c>
       <c r="K12">
-        <v>1.031940795391453</v>
+        <v>1.032447848170589</v>
       </c>
       <c r="L12">
-        <v>1.039847376081621</v>
+        <v>0.9560114309031684</v>
       </c>
       <c r="M12">
-        <v>1.04795615462417</v>
+        <v>0.9588188887885479</v>
       </c>
       <c r="N12">
-        <v>1.015002907081969</v>
+        <v>0.9846082455099934</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027404875171458</v>
+        <v>0.9146568202659843</v>
       </c>
       <c r="D13">
-        <v>1.02832562562831</v>
+        <v>1.017833367932939</v>
       </c>
       <c r="E13">
-        <v>1.036322214373855</v>
+        <v>0.9401921946970875</v>
       </c>
       <c r="F13">
-        <v>1.044466999363247</v>
+        <v>0.9431113748500047</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032088219324764</v>
+        <v>1.042593917347682</v>
       </c>
       <c r="J13">
-        <v>1.034095732636423</v>
+        <v>0.9484623389165399</v>
       </c>
       <c r="K13">
-        <v>1.031957051888458</v>
+        <v>1.032583787797495</v>
       </c>
       <c r="L13">
-        <v>1.039923445513542</v>
+        <v>0.9565142514280504</v>
       </c>
       <c r="M13">
-        <v>1.048038001575628</v>
+        <v>0.9593681027361453</v>
       </c>
       <c r="N13">
-        <v>1.01502973886455</v>
+        <v>0.9847901552887111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027721433537619</v>
+        <v>0.9167948955634999</v>
       </c>
       <c r="D14">
-        <v>1.028410995097715</v>
+        <v>1.018427363383489</v>
       </c>
       <c r="E14">
-        <v>1.036603975191155</v>
+        <v>0.9420268623367147</v>
       </c>
       <c r="F14">
-        <v>1.044767418528643</v>
+        <v>0.9450993367504533</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032116389121548</v>
+        <v>1.042937463219381</v>
       </c>
       <c r="J14">
-        <v>1.034349631226814</v>
+        <v>0.9501325855081769</v>
       </c>
       <c r="K14">
-        <v>1.032010214618294</v>
+        <v>1.033026461754199</v>
       </c>
       <c r="L14">
-        <v>1.040172559482984</v>
+        <v>0.9581501772391376</v>
       </c>
       <c r="M14">
-        <v>1.048306006286542</v>
+        <v>0.9611550305269746</v>
       </c>
       <c r="N14">
-        <v>1.015117596857012</v>
+        <v>0.9853819441644747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027916378941239</v>
+        <v>0.9181006097077946</v>
       </c>
       <c r="D15">
-        <v>1.028463533035007</v>
+        <v>1.018791106011193</v>
       </c>
       <c r="E15">
-        <v>1.036777486199293</v>
+        <v>0.9431477577485019</v>
       </c>
       <c r="F15">
-        <v>1.044952394516385</v>
+        <v>0.9463138530559985</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03213366118906</v>
+        <v>1.043147210004928</v>
       </c>
       <c r="J15">
-        <v>1.034505967670824</v>
+        <v>0.9511526767855816</v>
       </c>
       <c r="K15">
-        <v>1.032042891180095</v>
+        <v>1.033297132637025</v>
       </c>
       <c r="L15">
-        <v>1.040325945172283</v>
+        <v>0.9591494062487752</v>
       </c>
       <c r="M15">
-        <v>1.048471000785417</v>
+        <v>0.9622465336911226</v>
       </c>
       <c r="N15">
-        <v>1.015171684518071</v>
+        <v>0.985743368766799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029049584947948</v>
+        <v>0.9255317612098708</v>
       </c>
       <c r="D16">
-        <v>1.028768394707432</v>
+        <v>1.020875099267475</v>
       </c>
       <c r="E16">
-        <v>1.03778601627211</v>
+        <v>0.9495336959304974</v>
       </c>
       <c r="F16">
-        <v>1.0460271822889</v>
+        <v>0.9532324909179311</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032232905567818</v>
+        <v>1.04433953913598</v>
       </c>
       <c r="J16">
-        <v>1.035414415999239</v>
+        <v>0.9569591931209017</v>
       </c>
       <c r="K16">
-        <v>1.032231880476163</v>
+        <v>1.034841803996266</v>
       </c>
       <c r="L16">
-        <v>1.041217175631637</v>
+        <v>0.9648385404172942</v>
       </c>
       <c r="M16">
-        <v>1.049429335763923</v>
+        <v>0.9684614653499826</v>
       </c>
       <c r="N16">
-        <v>1.01548582207505</v>
+        <v>0.9878004944850005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029759145290885</v>
+        <v>0.9300534494979282</v>
       </c>
       <c r="D17">
-        <v>1.028958805360122</v>
+        <v>1.02215417804435</v>
       </c>
       <c r="E17">
-        <v>1.038417439449044</v>
+        <v>0.9534247526235922</v>
       </c>
       <c r="F17">
-        <v>1.046699750808507</v>
+        <v>0.9574473848988898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032294026099777</v>
+        <v>1.045063254377348</v>
       </c>
       <c r="J17">
-        <v>1.035982955886292</v>
+        <v>0.9604928693818932</v>
       </c>
       <c r="K17">
-        <v>1.03234936944118</v>
+        <v>1.035784603260101</v>
       </c>
       <c r="L17">
-        <v>1.041774876535409</v>
+        <v>0.9683018599207446</v>
       </c>
       <c r="M17">
-        <v>1.050028721520119</v>
+        <v>0.972245051759221</v>
       </c>
       <c r="N17">
-        <v>1.015682281385862</v>
+        <v>0.9890521971109255</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030172568676995</v>
+        <v>0.9326437874065913</v>
       </c>
       <c r="D18">
-        <v>1.029069572657465</v>
+        <v>1.022890481469632</v>
       </c>
       <c r="E18">
-        <v>1.0387853103313</v>
+        <v>0.9556555839651182</v>
       </c>
       <c r="F18">
-        <v>1.047091471263125</v>
+        <v>0.959863554196258</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032329268507136</v>
+        <v>1.045476991842703</v>
       </c>
       <c r="J18">
-        <v>1.03631411013192</v>
+        <v>0.9625173046783524</v>
       </c>
       <c r="K18">
-        <v>1.032417517101583</v>
+        <v>1.036325456530816</v>
       </c>
       <c r="L18">
-        <v>1.042099694405879</v>
+        <v>0.9702863323371635</v>
       </c>
       <c r="M18">
-        <v>1.050377706573569</v>
+        <v>0.9744130292623077</v>
       </c>
       <c r="N18">
-        <v>1.015796661606911</v>
+        <v>0.9897691972406288</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030313459449814</v>
+        <v>0.9335193245353247</v>
       </c>
       <c r="D19">
-        <v>1.029107291220223</v>
+        <v>1.023139920420301</v>
       </c>
       <c r="E19">
-        <v>1.038910672765513</v>
+        <v>0.9564098921726304</v>
       </c>
       <c r="F19">
-        <v>1.047224940396985</v>
+        <v>0.9606804702057764</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032341216033393</v>
+        <v>1.045616671037714</v>
       </c>
       <c r="J19">
-        <v>1.036426946702209</v>
+        <v>0.9632015745391429</v>
       </c>
       <c r="K19">
-        <v>1.032440688953612</v>
+        <v>1.036508367091759</v>
       </c>
       <c r="L19">
-        <v>1.042210368007932</v>
+        <v>0.9709571491003144</v>
       </c>
       <c r="M19">
-        <v>1.050496595661091</v>
+        <v>0.9751458691224347</v>
       </c>
       <c r="N19">
-        <v>1.015835626653956</v>
+        <v>0.9900115283843217</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029683062991994</v>
+        <v>0.9295732546855139</v>
       </c>
       <c r="D20">
-        <v>1.028938406714372</v>
+        <v>1.022017962956972</v>
       </c>
       <c r="E20">
-        <v>1.038349738062469</v>
+        <v>0.953011342566102</v>
       </c>
       <c r="F20">
-        <v>1.046627650416998</v>
+        <v>0.9569996009854741</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032287510665678</v>
+        <v>1.044986481781361</v>
       </c>
       <c r="J20">
-        <v>1.035922005195823</v>
+        <v>0.9601175871783336</v>
       </c>
       <c r="K20">
-        <v>1.032336803464371</v>
+        <v>1.035684395072467</v>
       </c>
       <c r="L20">
-        <v>1.041715090226457</v>
+        <v>0.9679340129191191</v>
       </c>
       <c r="M20">
-        <v>1.049964478017836</v>
+        <v>0.971843187637249</v>
       </c>
       <c r="N20">
-        <v>1.015661225043316</v>
+        <v>0.9889192738758377</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027628235160652</v>
+        <v>0.9161677294978844</v>
       </c>
       <c r="D21">
-        <v>1.02838586862605</v>
+        <v>1.01825291520537</v>
       </c>
       <c r="E21">
-        <v>1.036521022667742</v>
+        <v>0.9414885957575669</v>
       </c>
       <c r="F21">
-        <v>1.044678978055448</v>
+        <v>0.9445161025795498</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032108111375411</v>
+        <v>1.042836700352006</v>
       </c>
       <c r="J21">
-        <v>1.034274885043486</v>
+        <v>0.9496426315679692</v>
       </c>
       <c r="K21">
-        <v>1.031994575925108</v>
+        <v>1.032896539941073</v>
       </c>
       <c r="L21">
-        <v>1.040099222831505</v>
+        <v>0.9576702700408323</v>
       </c>
       <c r="M21">
-        <v>1.048227113116484</v>
+        <v>0.9606308169239725</v>
       </c>
       <c r="N21">
-        <v>1.01509173415843</v>
+        <v>0.9852083486141231</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026332079586497</v>
+        <v>0.907239982123983</v>
       </c>
       <c r="D22">
-        <v>1.028035801822122</v>
+        <v>1.015788974138758</v>
       </c>
       <c r="E22">
-        <v>1.035367271080526</v>
+        <v>0.9338354625255275</v>
       </c>
       <c r="F22">
-        <v>1.043448449898513</v>
+        <v>0.9362231467654767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03199163656742</v>
+        <v>1.041401924167632</v>
       </c>
       <c r="J22">
-        <v>1.033234971825414</v>
+        <v>0.9426698262559461</v>
       </c>
       <c r="K22">
-        <v>1.03177596543996</v>
+        <v>1.031054005836723</v>
       </c>
       <c r="L22">
-        <v>1.039078836949166</v>
+        <v>0.9508423868960526</v>
       </c>
       <c r="M22">
-        <v>1.047129010026396</v>
+        <v>0.9531735367414577</v>
       </c>
       <c r="N22">
-        <v>1.014731732053806</v>
+        <v>0.9827377694940972</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027019601454832</v>
+        <v>0.9120241753528052</v>
       </c>
       <c r="D23">
-        <v>1.028221631281289</v>
+        <v>1.017104793268045</v>
       </c>
       <c r="E23">
-        <v>1.035979278078013</v>
+        <v>0.9379344740824684</v>
       </c>
       <c r="F23">
-        <v>1.044101286293346</v>
+        <v>0.9406649335487183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032053730946782</v>
+        <v>1.042170811399199</v>
       </c>
       <c r="J23">
-        <v>1.033786662795887</v>
+        <v>0.9464059798466364</v>
       </c>
       <c r="K23">
-        <v>1.03189218093694</v>
+        <v>1.032039702815742</v>
       </c>
       <c r="L23">
-        <v>1.039620187467992</v>
+        <v>0.9545004296310341</v>
       </c>
       <c r="M23">
-        <v>1.047711685863369</v>
+        <v>0.9571685317326631</v>
       </c>
       <c r="N23">
-        <v>1.014922761790638</v>
+        <v>0.9840615516726776</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029717442701623</v>
+        <v>0.9297903787893314</v>
       </c>
       <c r="D24">
-        <v>1.028947624899415</v>
+        <v>1.022079542767186</v>
       </c>
       <c r="E24">
-        <v>1.038380330725869</v>
+        <v>0.9531982639333533</v>
       </c>
       <c r="F24">
-        <v>1.046660231264331</v>
+        <v>0.9572020653526286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032290455971302</v>
+        <v>1.045021197873096</v>
       </c>
       <c r="J24">
-        <v>1.035949547627232</v>
+        <v>0.9602872738810982</v>
       </c>
       <c r="K24">
-        <v>1.03234248266802</v>
+        <v>1.035729702771199</v>
       </c>
       <c r="L24">
-        <v>1.04174210656784</v>
+        <v>0.9681003366770419</v>
       </c>
       <c r="M24">
-        <v>1.049993508826968</v>
+        <v>0.9720248924357836</v>
       </c>
       <c r="N24">
-        <v>1.015670740150592</v>
+        <v>0.9889793764370977</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032830508487089</v>
+        <v>0.9485813407260268</v>
       </c>
       <c r="D25">
-        <v>1.029778485672828</v>
+        <v>1.027472350998198</v>
       </c>
       <c r="E25">
-        <v>1.041149902068874</v>
+        <v>0.9694078507345619</v>
       </c>
       <c r="F25">
-        <v>1.049607153469448</v>
+        <v>0.9747511758943893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03254915108397</v>
+        <v>1.048001972314738</v>
       </c>
       <c r="J25">
-        <v>1.038441250930218</v>
+        <v>0.9749723290617659</v>
       </c>
       <c r="K25">
-        <v>1.032850059893946</v>
+        <v>1.039658654128936</v>
       </c>
       <c r="L25">
-        <v>1.044185712507498</v>
+        <v>0.9825003913510397</v>
       </c>
       <c r="M25">
-        <v>1.052616913775952</v>
+        <v>0.9877545152262391</v>
       </c>
       <c r="N25">
-        <v>1.0165304624545</v>
+        <v>0.9941780940173525</v>
       </c>
     </row>
   </sheetData>
